--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="99">
   <si>
     <t>Среднее геометрическое</t>
   </si>
@@ -229,6 +229,87 @@
   </si>
   <si>
     <t>-6.86786604618873</t>
+  </si>
+  <si>
+    <t>0.5738592353225479</t>
+  </si>
+  <si>
+    <t>0.4140720078569301</t>
+  </si>
+  <si>
+    <t>29.705488739644878</t>
+  </si>
+  <si>
+    <t>0.6124446717906635</t>
+  </si>
+  <si>
+    <t>1.9246492042510421</t>
+  </si>
+  <si>
+    <t>0.47809324822110644</t>
+  </si>
+  <si>
+    <t>29.871975010252346</t>
+  </si>
+  <si>
+    <t>0.1918417082305378</t>
+  </si>
+  <si>
+    <t>2.8623777556892516</t>
+  </si>
+  <si>
+    <t>0.22300461293604293</t>
+  </si>
+  <si>
+    <t>3.133675876375842</t>
+  </si>
+  <si>
+    <t>0.843904518287496</t>
+  </si>
+  <si>
+    <t>0.9357554619659355</t>
+  </si>
+  <si>
+    <t>16.984363013444163</t>
+  </si>
+  <si>
+    <t>0.3132392476689065</t>
+  </si>
+  <si>
+    <t>1.4872205019839535</t>
+  </si>
+  <si>
+    <t>0.4664458529079849</t>
+  </si>
+  <si>
+    <t>0.10490353835996229</t>
+  </si>
+  <si>
+    <t>0.0368032410168108</t>
+  </si>
+  <si>
+    <t>8.193206416264637</t>
+  </si>
+  <si>
+    <t>0.04973105739075433</t>
+  </si>
+  <si>
+    <t>9.8199244981799</t>
+  </si>
+  <si>
+    <t>0.9772454576477301</t>
+  </si>
+  <si>
+    <t>0.9648370434519467</t>
+  </si>
+  <si>
+    <t>0.133340939360234</t>
+  </si>
+  <si>
+    <t>0.029081581486011192</t>
+  </si>
+  <si>
+    <t>21.317324675216813</t>
   </si>
 </sst>
 </file>
@@ -284,7 +365,7 @@
     <col min="3" max="3" customWidth="true" width="40.0"/>
     <col min="4" max="4" customWidth="true" width="40.0"/>
     <col min="5" max="5" customWidth="true" width="40.0"/>
-    <col min="6" max="6" width="40.0" customWidth="true"/>
+    <col min="6" max="6" customWidth="true" width="40.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -295,16 +376,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>1</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -315,16 +396,16 @@
         <v>39</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -335,16 +416,16 @@
         <v>44</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -355,16 +436,16 @@
         <v>49</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>50</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -395,16 +476,16 @@
         <v>52</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -435,16 +516,16 @@
         <v>62</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -455,13 +536,13 @@
         <v>67</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>68</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>69</v>
@@ -475,16 +556,16 @@
         <v>70</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>71</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +585,7 @@
     <col min="2" max="2" customWidth="true" width="15.0"/>
     <col min="3" max="3" customWidth="true" width="15.0"/>
     <col min="4" max="4" customWidth="true" width="15.0"/>
-    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0"/>
   </cols>
   <sheetData>
     <row r="1">
